--- a/Time Log for SAD + SEP/SAD+SEP-TimeLog-ToanDang.xlsx
+++ b/Time Log for SAD + SEP/SAD+SEP-TimeLog-ToanDang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Week</t>
   </si>
@@ -126,17 +126,6 @@
   </si>
   <si>
     <t>Report</t>
-  </si>
-  <si>
-    <t>1. Requirment Analysis
-2. Architect Design</t>
-  </si>
-  <si>
-    <t>Team Meeting</t>
-  </si>
-  <si>
-    <t>1. Review "User Requirement Document"
-2. Review "Architect Driver"</t>
   </si>
   <si>
     <t>Le Thi Bich Van</t>
@@ -889,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -971,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>8</v>
@@ -993,12 +982,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12"/>
       <c r="L7" s="2" t="s">
@@ -1019,7 +1008,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" s="12"/>
       <c r="L8" s="2" t="s">
@@ -1977,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2015,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>15</v>
@@ -2125,32 +2114,20 @@
       </c>
       <c r="M9" s="40"/>
     </row>
-    <row r="10" spans="1:13" ht="79.5" thickBot="1">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="95">
         <v>2</v>
       </c>
-      <c r="B10" s="53">
-        <v>41059</v>
-      </c>
-      <c r="C10" s="56">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0.46875</v>
-      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="57">
         <f>D10-C10</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="L10" s="32" t="s">
